--- a/medicine/Autisme/L'Enfant_cheval_(autisme)/L'Enfant_cheval_(autisme).xlsx
+++ b/medicine/Autisme/L'Enfant_cheval_(autisme)/L'Enfant_cheval_(autisme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enfant_cheval_(autisme)</t>
+          <t>L'Enfant_cheval_(autisme)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Enfant cheval est le titre d'un livre autobiographique et un film documentaire qui suit la quête de Rupert Isaacson et de sa femme pour trouver un moyen de communiquer avec leur fils autiste Rowan, âgé d'environ cinq ans. Après avoir découvert que le comportement de Rowan s'améliore après des contacts avec des animaux, notamment des chevaux, la famille quitte le Texas et part dans un voyage chamanique en Mongolie. Le livre et le film retracent le voyage de la famille, en avion jusqu'à Oulan-Bator, en camping avec le soutien d'une camionnette  puis à cheval.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enfant_cheval_(autisme)</t>
+          <t>L'Enfant_cheval_(autisme)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le livre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Enfant cheval : La quête d'un père aux confins du monde pour guérir son fils autiste : ce livre a été édité aux États-Unis en 2009, et, la même année, il est paru une traduction en français par Esther Ménévis.
 L'enfant a un très bon contact avec les chevaux ; dans les bras de son père, sur un cheval, il est ravi. Cela permet à son père de réussir, enfin, à nouer une relation de communication avec son fils.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Enfant_cheval_(autisme)</t>
+          <t>L'Enfant_cheval_(autisme)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Le film</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film documentaire The Horse Boy sorti en 2009, a été réalisé par Michel Orion Scott[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film documentaire The Horse Boy sorti en 2009, a été réalisé par Michel Orion Scott.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Enfant_cheval_(autisme)</t>
+          <t>L'Enfant_cheval_(autisme)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Enfant_cheval_(autisme)</t>
+          <t>L'Enfant_cheval_(autisme)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Réalisation : Michel Orion Scott</t>
         </is>
